--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -451,799 +451,1079 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>006540</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>南方绩优成长混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>84.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007046</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>011228</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>西部利得量化成长混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>95.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>730001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>007808</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>74.67</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009694</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安安利混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>69.21</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007146</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华研究智选混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003516</t>
+          <t>004698</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰融安多策略灵活配置混合</t>
+          <t>博时军工主题股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>54.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020023</t>
+          <t>519005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰事件驱动策略混合</t>
+          <t>海富通股票混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>30.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>009697</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>华夏成长精选6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>19.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005696</t>
+          <t>003516</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
+          <t>国泰融安多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利转型机遇股票</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007808</t>
+          <t>008085</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
+          <t>海富通先进制造股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>78.98</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>162201</t>
+          <t>009698</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰达宏利成长混合</t>
+          <t>华夏成长精选6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>162201</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>泰达宏利成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>004640</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>华夏节能环保股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010135</t>
+          <t>001471</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
+          <t>融通新能源灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010136</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000822</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东海美丽中国灵活配置混合</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>泰达宏利转型机遇股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006926</t>
+          <t>010135</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长城量化精选股票A</t>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83.10</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011463</t>
+          <t>008961</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长城量化精选股票C</t>
+          <t>华商科技创新混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>83.10</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1798,25 +2268,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>008084</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>海富通先进制造股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1836,15 +2316,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>89.64</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007439</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东海科技动力混合A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007463</t>
+          <t>009025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东海科技动力混合C</t>
+          <t>海富通科技创新混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001298</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>金鹰民族新兴灵活配置混合</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001471</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>融通新能源灵活配置混合</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>519005</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>海富通股票混合</t>
+          <t>国泰事件驱动策略混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2004,15 +2544,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>97.97</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1.78</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>580009</t>
+          <t>001298</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东吴多策略灵活配置混合</t>
+          <t>金鹰民族新兴灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002181</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安大安全主题灵活配置混合</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>80.58</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -2134,25 +2724,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>002703</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>长城久源灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>74.87</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>002885</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>83.89</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>002567</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>大成国家安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>88.28</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>168401</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>24.24</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>730001</t>
+          <t>009024</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>方正富邦创新动力混合A</t>
+          <t>海富通科技创新混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>75.68</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2302,25 +2952,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>007046</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>方正富邦创新动力混合C</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>75.68</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>002567</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大成国家安全主题灵活配置混合</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.69</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>002181</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>华安大安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>81.23</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>168401</t>
+          <t>006926</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
+          <t>长城量化精选股票A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>008961</t>
+          <t>004194</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华商科技创新混合</t>
+          <t>招商中证1000指数增强A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>85.75</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009025</t>
+          <t>730001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海富通科技创新混合A</t>
+          <t>方正富邦创新动力混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>10</v>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>009024</t>
+          <t>580009</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海富通科技创新混合C</t>
+          <t>东吴多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>10</v>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>002703</t>
+          <t>007808</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>长城久源灵活配置混合</t>
+          <t>北信瑞丰量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>002885</t>
+          <t>010136</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2554,25 +3294,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>008085</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>海富通先进制造股票A</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>008084</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>海富通先进制造股票C</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>7</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2610,25 +3370,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>004194</t>
+          <t>004195</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强A</t>
+          <t>招商中证1000指数增强C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>004195</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>招商中证1000指数增强C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>8</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2666,25 +3446,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>004640</t>
+          <t>000822</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华夏节能环保股票</t>
+          <t>东海美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>004698</t>
+          <t>007046</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>博时军工主题股票</t>
+          <t>方正富邦创新动力混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>5</v>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>009697</t>
+          <t>011463</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
+          <t>长城量化精选股票C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>8</v>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>009698</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>8</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2778,26 +3598,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>77.19</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>9</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3606,7 +3607,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -3621,6 +3621,782 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5540</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4403,4 +4404,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5334,4 +5335,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5343,7 +5344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5354,17 +5355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5374,14 +5395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.06</v>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5390,14 +5433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.23</v>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5406,14 +5471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.11</v>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5422,13 +5509,1935 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0874</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0424</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005474</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3941</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004640</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏节能环保股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006904</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005475</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006061</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006064</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>红土创新增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7336,7 +7337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7347,17 +7348,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7367,14 +7388,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>51</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.48</v>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1224</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7383,14 +7426,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.06</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -7399,14 +7464,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.23</v>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7415,14 +7502,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.11</v>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7012</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7431,13 +7540,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8039,7 +8040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8050,17 +8051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8070,14 +8091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.88</v>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8086,14 +8129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.48</v>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -8102,14 +8167,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.06</v>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8118,14 +8205,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.23</v>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8134,14 +8243,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.11</v>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8150,13 +8281,523 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>54</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.74</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3.92</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>5.88</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>17.48</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>7.06</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>6.23</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>10.11</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.74</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3917,7 +4066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4847,7 +4996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5623,7 +5772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7724,7 +7873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300726-宏达电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.92</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>5.88</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>17.48</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
-        <v>7.06</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>6.23</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>10.11</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0614</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时军工主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1716,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +2093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1372,7 +2717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2074,7 +3419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4066,7 +5411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4996,7 +6341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5772,7 +7117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7871,1086 +9216,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0614</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004698</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时军工主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>39.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5488</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.63</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7860</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4358</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1560</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1219</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009694</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华安安利混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>69.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1011</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007146</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华研究智选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0773</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000166</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中海信息产业精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002181</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华安大安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002703</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城久源灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>730001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>580009</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>东吴多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.79</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007808</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>74.67</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007046</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>方正富邦创新动力混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.33</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>95.23</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>